--- a/fileNaming/자산정리/xxx.xlsx
+++ b/fileNaming/자산정리/xxx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2111</v>
+        <v>2232</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20410170</t>
+          <t>20501096</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>200974777</t>
+          <t>201028774</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20105967</t>
+          <t>20130562</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,256 +494,7 @@
           <t>항고</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>미결정</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>4572</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20451477</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>200973932</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20119899</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>체크_항고사건결과없음</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>항고</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>미결정</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>5316</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20472475</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>200992679</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20145982</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>체크_항고사건결과없음</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>항고</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>미결정</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>5388</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20498948</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>201026635</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20137956</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>체크_항고사건결과없음</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>항고</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>미결정</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>6067</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20501293</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>201028971</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20133470</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>체크_항고사건결과없음</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>항고</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>미결정</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6315</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20501530</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>201029208</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20144100</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>체크_항고사건결과없음</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>항고</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>미결정</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6673</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20501866</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>201029544</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20130167</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>체크_항고사건결과없음</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>항고</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>미결정</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7178</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>20514973</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>201045826</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20130737</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>체크_항고사건결과없음</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>항고</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>미결정</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
